--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/89.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/89.xlsx
@@ -479,13 +479,13 @@
         <v>-0.004794654507331235</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.65203608237565</v>
+        <v>-2.626929307637993</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.03802523763461158</v>
+        <v>-0.05332082836609937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2303770652958156</v>
+        <v>0.2144788729357007</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.01013179448204115</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.804738872609677</v>
+        <v>-2.776673982589792</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1153534207154373</v>
+        <v>-0.1312564924409662</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2451944782167329</v>
+        <v>0.232598396400532</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.02218659479240853</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.041273735061034</v>
+        <v>-3.010695971852947</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2154316450389657</v>
+        <v>-0.2301654988271685</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2621569821577731</v>
+        <v>0.2479336319760084</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.02486875655655058</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.241257271196232</v>
+        <v>-3.202921621940248</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2803857574299269</v>
+        <v>-0.2949110183466819</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3018390313076785</v>
+        <v>0.2889495776459618</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.01682213311604776</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.388138978491376</v>
+        <v>-3.352174090905912</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3378311363694427</v>
+        <v>-0.347770403717729</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2874985763559782</v>
+        <v>0.2746871925408852</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.001246802698916017</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.134186306313787</v>
+        <v>-3.109866939169812</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4089155614823986</v>
+        <v>-0.4109496469393534</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2840628931838564</v>
+        <v>0.2741053282152676</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.01242001828760039</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.818285210840252</v>
+        <v>-2.795557736662589</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4388205821840326</v>
+        <v>-0.440826611289857</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2738637996272754</v>
+        <v>0.2676724948376058</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.01374208062041952</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.38863268931185</v>
+        <v>-2.369489718951435</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4606142678055942</v>
+        <v>-0.4661035538963268</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2440136717865486</v>
+        <v>0.2396417603756185</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.006627245647840477</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.040435684083828</v>
+        <v>-2.008613682695175</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5159029672321289</v>
+        <v>-0.5263216322323393</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3033924992713558</v>
+        <v>0.2964607507801141</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.05843731916236537</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.581425240700835</v>
+        <v>-1.536161197517331</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.6153663915134953</v>
+        <v>-0.6360079369766798</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3056260287896072</v>
+        <v>0.3023233083250165</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.145846671551423</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.139438293326557</v>
+        <v>-1.075957139369943</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7928441596370289</v>
+        <v>-0.8254688166362825</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3173877391200168</v>
+        <v>0.3174340930914496</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.2684414335957346</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.5867562324085973</v>
+        <v>-0.5204035719058528</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.067757975712418</v>
+        <v>-1.114291263824235</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3520897859442743</v>
+        <v>0.3577675375241219</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4235876133757544</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0248899859401654</v>
+        <v>0.05426246988481382</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.443607564582844</v>
+        <v>-1.487844501346704</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4278211966933736</v>
+        <v>0.4390406875421541</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.602840887049535</v>
       </c>
       <c r="E15" t="n">
-        <v>0.4597871393617393</v>
+        <v>0.5535057207888157</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.854723986824196</v>
+        <v>-1.894487155424108</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4960005696229785</v>
+        <v>0.5138742950550803</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.7988912485293618</v>
       </c>
       <c r="E16" t="n">
-        <v>1.033008888989867</v>
+        <v>1.130415050828562</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.313492901619196</v>
+        <v>-2.349447115592818</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5863627575659103</v>
+        <v>0.6059430410515532</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.010306335028689</v>
       </c>
       <c r="E17" t="n">
-        <v>1.542382922334654</v>
+        <v>1.639009605548465</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.654456247620986</v>
+        <v>-2.68286452298188</v>
       </c>
       <c r="G17" t="n">
-        <v>0.7051307811870294</v>
+        <v>0.7277368811500194</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.231164838147723</v>
       </c>
       <c r="E18" t="n">
-        <v>2.003603718250182</v>
+        <v>2.091049265516904</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.973925988974175</v>
+        <v>-2.994439756055581</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8315466001738924</v>
+        <v>0.856538099903644</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.451127962091689</v>
       </c>
       <c r="E19" t="n">
-        <v>2.374007325397924</v>
+        <v>2.458001941475606</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.273370204747694</v>
+        <v>-3.285615582174765</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9704322473968694</v>
+        <v>0.9939087041655789</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.657147011760247</v>
       </c>
       <c r="E20" t="n">
-        <v>2.712709695451009</v>
+        <v>2.798504797366451</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.520040119084573</v>
+        <v>-3.529475286993527</v>
       </c>
       <c r="G20" t="n">
-        <v>1.074640244622659</v>
+        <v>1.098072177181966</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.837352918250923</v>
       </c>
       <c r="E21" t="n">
-        <v>3.05667934046849</v>
+        <v>3.133390283824447</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.73923707141835</v>
+        <v>-3.738495712835763</v>
       </c>
       <c r="G21" t="n">
-        <v>1.22572003593586</v>
+        <v>1.247436261631474</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.989266936936294</v>
       </c>
       <c r="E22" t="n">
-        <v>3.307853214042815</v>
+        <v>3.377650096607156</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.931066273065766</v>
+        <v>-3.925277820883089</v>
       </c>
       <c r="G22" t="n">
-        <v>1.317556402154492</v>
+        <v>1.339309223090711</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.112056444935216</v>
       </c>
       <c r="E23" t="n">
-        <v>3.563938168906315</v>
+        <v>3.630047471059037</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.055281193290583</v>
+        <v>-4.055273874242463</v>
       </c>
       <c r="G23" t="n">
-        <v>1.39475467213117</v>
+        <v>1.421066650126081</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.203128325951957</v>
       </c>
       <c r="E24" t="n">
-        <v>3.725385391882879</v>
+        <v>3.78765951282021</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.196711124616615</v>
+        <v>-4.193330334305401</v>
       </c>
       <c r="G24" t="n">
-        <v>1.452010365740217</v>
+        <v>1.478881640995706</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>2.262268935161932</v>
       </c>
       <c r="E25" t="n">
-        <v>3.884865010756255</v>
+        <v>3.943318588574435</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.156093762108917</v>
+        <v>-4.160491900108947</v>
       </c>
       <c r="G25" t="n">
-        <v>1.454799532994986</v>
+        <v>1.483118759937075</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>2.288709435120734</v>
       </c>
       <c r="E26" t="n">
-        <v>3.909480189428453</v>
+        <v>3.967153068780395</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.03136284899157</v>
+        <v>-4.040544899819674</v>
       </c>
       <c r="G26" t="n">
-        <v>1.427869705354529</v>
+        <v>1.454410403603221</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>2.281361443630145</v>
       </c>
       <c r="E27" t="n">
-        <v>4.070593175874159</v>
+        <v>4.12088235551339</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.892270133698837</v>
+        <v>-3.914079067337318</v>
       </c>
       <c r="G27" t="n">
-        <v>1.361842742493168</v>
+        <v>1.389477638435946</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>2.242101317617654</v>
       </c>
       <c r="E28" t="n">
-        <v>3.997419772443341</v>
+        <v>4.046912395678739</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.754836097686521</v>
+        <v>-3.777415056179395</v>
       </c>
       <c r="G28" t="n">
-        <v>1.296131108621686</v>
+        <v>1.32565919834509</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>2.172923728857955</v>
       </c>
       <c r="E29" t="n">
-        <v>3.9389625351011</v>
+        <v>3.986171615322753</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.689590443212074</v>
+        <v>-3.712214840795366</v>
       </c>
       <c r="G29" t="n">
-        <v>1.203083439939032</v>
+        <v>1.236454639846626</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>2.07775453629343</v>
       </c>
       <c r="E30" t="n">
-        <v>3.797681729380534</v>
+        <v>3.842135187984639</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.516003359085516</v>
+        <v>-3.543597390342952</v>
       </c>
       <c r="G30" t="n">
-        <v>1.127693584768912</v>
+        <v>1.160079762783557</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.964687129111059</v>
       </c>
       <c r="E31" t="n">
-        <v>3.622516170542552</v>
+        <v>3.664533605963725</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.367042127242999</v>
+        <v>-3.397498211276075</v>
       </c>
       <c r="G31" t="n">
-        <v>0.9774310871625533</v>
+        <v>1.01904292533369</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.838992464592708</v>
       </c>
       <c r="E32" t="n">
-        <v>3.457374048106248</v>
+        <v>3.494920764966858</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.22882281835937</v>
+        <v>-3.262568204602148</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9084051443336222</v>
+        <v>0.953111720018578</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.708111782549924</v>
       </c>
       <c r="E33" t="n">
-        <v>3.310388044375379</v>
+        <v>3.33751975575984</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.082335119821405</v>
+        <v>-3.117282964678392</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7870724042667775</v>
+        <v>0.8331183657578721</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.578774012649024</v>
       </c>
       <c r="E34" t="n">
-        <v>3.034827102461961</v>
+        <v>3.061203732048607</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.900959958573451</v>
+        <v>-2.93514601250518</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6890331447656178</v>
+        <v>0.7374943921366348</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.453908134538649</v>
       </c>
       <c r="E35" t="n">
-        <v>2.737006495529944</v>
+        <v>2.762188900431518</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.818399266006804</v>
+        <v>-2.850967810303797</v>
       </c>
       <c r="G35" t="n">
-        <v>0.6459739648285585</v>
+        <v>0.692683520015955</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.336877417642746</v>
       </c>
       <c r="E36" t="n">
-        <v>2.457349326351485</v>
+        <v>2.479349165161788</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.747944279032252</v>
+        <v>-2.773904942717356</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5977335087425244</v>
+        <v>0.6414721403134811</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.228753160895836</v>
       </c>
       <c r="E37" t="n">
-        <v>2.178557024692655</v>
+        <v>2.197488962498915</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.686788752616077</v>
+        <v>-2.715118348209671</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5313168065687214</v>
+        <v>0.5754104119735455</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.126710021085533</v>
       </c>
       <c r="E38" t="n">
-        <v>1.949925209410262</v>
+        <v>1.964951215202627</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.614572314727077</v>
+        <v>-2.639957823214008</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5335631444211845</v>
+        <v>0.5774615752094492</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.031666598604175</v>
       </c>
       <c r="E39" t="n">
-        <v>1.684822577341042</v>
+        <v>1.694046407735503</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.491245134047266</v>
+        <v>-2.515575479763423</v>
       </c>
       <c r="G39" t="n">
-        <v>0.4723307679997399</v>
+        <v>0.5090089578166611</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9425452855677481</v>
       </c>
       <c r="E40" t="n">
-        <v>1.470686136862243</v>
+        <v>1.476841456331984</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.430111564775455</v>
+        <v>-2.448332944993303</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4350859618741197</v>
+        <v>0.4688127455362571</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.8571414821193173</v>
       </c>
       <c r="E41" t="n">
-        <v>1.187713438884981</v>
+        <v>1.190537981539002</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.312471284485643</v>
+        <v>-2.33402405143989</v>
       </c>
       <c r="G41" t="n">
-        <v>0.3888070106845073</v>
+        <v>0.423402321390334</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.7765653747894482</v>
       </c>
       <c r="E42" t="n">
-        <v>0.9452669202742445</v>
+        <v>0.9443697269587481</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.197004151567085</v>
+        <v>-2.218538010980351</v>
       </c>
       <c r="G42" t="n">
-        <v>0.3808664533939244</v>
+        <v>0.4109038268824127</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.6990742534472115</v>
       </c>
       <c r="E43" t="n">
-        <v>0.803150523226533</v>
+        <v>0.7979082550098835</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.053545319109851</v>
+        <v>-2.076711936174772</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3217913664061377</v>
+        <v>0.3499440850034746</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.6234805514705096</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6139409308857505</v>
+        <v>0.6073531776561947</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.991769503365424</v>
+        <v>-2.01280078814105</v>
       </c>
       <c r="G44" t="n">
-        <v>0.285990852443057</v>
+        <v>0.3106090807186389</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.5503461482775585</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5324658971237146</v>
+        <v>0.5270455320694547</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.914261393684957</v>
+        <v>-1.932637693754699</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2467333080841682</v>
+        <v>0.2698578406223941</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.478784804718869</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3077223261555903</v>
+        <v>0.3026520555697837</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.868536250469832</v>
+        <v>-1.884792466267198</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1872398155121324</v>
+        <v>0.2067853335192007</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.4088387402750863</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1851740141799867</v>
+        <v>0.1757007262287359</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.762227076512646</v>
+        <v>-1.779079184811194</v>
       </c>
       <c r="G47" t="n">
-        <v>0.143323697024242</v>
+        <v>0.1632998190290944</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.3414575998084368</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09393963966930523</v>
+        <v>0.08909930917863265</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.740469986131689</v>
+        <v>-1.755079416101835</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1366780013303951</v>
+        <v>0.1533349350123846</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.2765057652767346</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.02916613980484603</v>
+        <v>-0.03039817957187711</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.68174987297777</v>
+        <v>-1.695264495333153</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07128779565555911</v>
+        <v>0.08954272151062849</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.2145858623740939</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.1360321713399035</v>
+        <v>-0.1373617984152143</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.646719078908745</v>
+        <v>-1.659983023865985</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04130775471068507</v>
+        <v>0.05807813363854967</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.1559683580086414</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.2453067796274391</v>
+        <v>-0.2449768125413184</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.645933501077093</v>
+        <v>-1.656339357743092</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01188091181962152</v>
+        <v>0.02489722898210182</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.1006352205848379</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3390082832755665</v>
+        <v>-0.3372968458566114</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.613292376219567</v>
+        <v>-1.620815137846578</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.01705372508530635</v>
+        <v>-0.006753994617061896</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.04902950911868213</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4434236535314502</v>
+        <v>-0.4385784436753637</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.564931765760214</v>
+        <v>-1.572231296419535</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03593198987201224</v>
+        <v>-0.02491316292588183</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.001577425915798403</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5158511239746054</v>
+        <v>-0.507565351580983</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.574675248571264</v>
+        <v>-1.582843916194951</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.04013678301751335</v>
+        <v>-0.03395950640340902</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.04220644525221658</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.5721730290275513</v>
+        <v>-0.5642593082467452</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.555221218665708</v>
+        <v>-1.562599429092329</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.08533983413334217</v>
+        <v>-0.07847639675789628</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.0822568198016131</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.6107755185796127</v>
+        <v>-0.6080601517267302</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.511979062525624</v>
+        <v>-1.523806034368446</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1153656191289723</v>
+        <v>-0.111318795438749</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.1189444288745772</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.7096393908357356</v>
+        <v>-0.7038329459930941</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.597958970406121</v>
+        <v>-1.604872421277061</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1282660513628705</v>
+        <v>-0.1237630070064396</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.1528060820815983</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.7822175116860475</v>
+        <v>-0.7722886129892659</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.602440667538866</v>
+        <v>-1.609236403719193</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1504232497077739</v>
+        <v>-0.1466923649281061</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.1839366886077858</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8904253687099507</v>
+        <v>-0.8855764993298036</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.617395922532728</v>
+        <v>-1.620866371183425</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1633377101172373</v>
+        <v>-0.1594250689758985</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.2125532941269214</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.9851112843303494</v>
+        <v>-0.9829716825963173</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.62805062683484</v>
+        <v>-1.635844193242327</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1974408148369282</v>
+        <v>-0.1945040467783863</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.2392280554542867</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.063034749991681</v>
+        <v>-1.065170082280976</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.652887206712698</v>
+        <v>-1.663337587588099</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2049739451154435</v>
+        <v>-0.2025428012979257</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.2643181839260965</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.104681963562069</v>
+        <v>-1.114791398779168</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.620140565578095</v>
+        <v>-1.633272767669157</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2357645706397157</v>
+        <v>-0.2311102659554513</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.2878944441589443</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.106814856168657</v>
+        <v>-1.124647716915417</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.68070141933444</v>
+        <v>-1.697383969684853</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.2667326830809216</v>
+        <v>-0.2611451997612326</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.3105478916868096</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.173285231362014</v>
+        <v>-1.189299308650711</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.781210857576429</v>
+        <v>-1.793361697298604</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2772233187209882</v>
+        <v>-0.2705532262000714</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.3325597737314128</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.166566955107634</v>
+        <v>-1.186924887456131</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.854317169732804</v>
+        <v>-1.864033206113401</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3055035107397654</v>
+        <v>-0.2991164214128597</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.353734387838551</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.191457817925722</v>
+        <v>-1.216208398988158</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.955901898127901</v>
+        <v>-1.963095912510144</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3501314066574208</v>
+        <v>-0.3418541731532729</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.3739215747209077</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.199199541075685</v>
+        <v>-1.225520667880748</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.027666994716107</v>
+        <v>-2.036484008019177</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3698794183291694</v>
+        <v>-0.3609721367659408</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.3924170074325971</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.183656932470114</v>
+        <v>-1.217090344286736</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.178289955442424</v>
+        <v>-2.180480180592626</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4225765648002016</v>
+        <v>-0.4143371463780121</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.4081202252582657</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.174150098881642</v>
+        <v>-1.205851945896976</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.318599767445608</v>
+        <v>-2.318405202749725</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.427480327041256</v>
+        <v>-0.415472818678117</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.4200991633272325</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.149780108321497</v>
+        <v>-1.180492054078469</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.443845758574468</v>
+        <v>-2.440164887290293</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4566211171349247</v>
+        <v>-0.4455053128011914</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.4273694456594694</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.269275767309977</v>
+        <v>-1.29200507124967</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.561334168615769</v>
+        <v>-2.554104778834275</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4868829414324564</v>
+        <v>-0.4765789415194747</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.4288101667991945</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.26642621790821</v>
+        <v>-1.288784080155763</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.682643121776221</v>
+        <v>-2.674329293031468</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4913249937212125</v>
+        <v>-0.4794559373516953</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.4241937001227688</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.229508939186003</v>
+        <v>-1.251442906563217</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.821565974160479</v>
+        <v>-2.809013196712328</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5386036049000149</v>
+        <v>-0.5247041225976035</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.4132732512218407</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.1956369944028</v>
+        <v>-1.215947962859187</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.912180669263585</v>
+        <v>-2.897071104338505</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5848148548945082</v>
+        <v>-0.5695534197209183</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.3966001497142684</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.189997057904911</v>
+        <v>-1.205496362142432</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.038996291254056</v>
+        <v>-3.02261077227322</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5992047134210252</v>
+        <v>-0.5805295522196764</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.3756480373995814</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.076383473922989</v>
+        <v>-1.088638610080888</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.082817872037051</v>
+        <v>-3.063992060428546</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5995700559063973</v>
+        <v>-0.5780916992747145</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.3515528596625753</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9703164384744718</v>
+        <v>-0.9823879885086694</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.118595513974754</v>
+        <v>-3.099089335851336</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.6088634172580074</v>
+        <v>-0.5879102023290047</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.3257526307489341</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7952484669447697</v>
+        <v>-0.8036794004594582</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.158991170316454</v>
+        <v>-3.136495465995956</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5850112493524211</v>
+        <v>-0.5649564475802683</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.2995758340018205</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6119636440579178</v>
+        <v>-0.6187532810314772</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.199717098704614</v>
+        <v>-3.179598560221741</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.6220084276832816</v>
+        <v>-0.5968796958012617</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.273694250042274</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4235780545514219</v>
+        <v>-0.4319437265536983</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.209998226592218</v>
+        <v>-3.193197351630515</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5767761003749688</v>
+        <v>-0.5520602847911074</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.2492616717349545</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.168059106075944</v>
+        <v>-0.1733385794538752</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.240304270138814</v>
+        <v>-3.221869112723765</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5288704907404694</v>
+        <v>-0.5054044026232646</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.2268494337560568</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1031305343472217</v>
+        <v>0.101633789006482</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.219844176076962</v>
+        <v>-3.199745460016083</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4531183426883606</v>
+        <v>-0.4294156053485776</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2062212239851974</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3194474412453949</v>
+        <v>0.3168845545616996</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.246214096536164</v>
+        <v>-3.220840786462768</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.418295531570107</v>
+        <v>-0.3925294325808853</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.1879251115304333</v>
       </c>
       <c r="E84" t="n">
-        <v>0.6080966709611506</v>
+        <v>0.6050458477360569</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.188259738791902</v>
+        <v>-3.153826362025752</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3604384561737862</v>
+        <v>-0.3347876321924699</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1719701687007031</v>
       </c>
       <c r="E85" t="n">
-        <v>0.8352970024152162</v>
+        <v>0.8289422388841782</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.130725616393919</v>
+        <v>-3.093227083266772</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3418389251363542</v>
+        <v>-0.3142540426890698</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1581533691825626</v>
       </c>
       <c r="E86" t="n">
-        <v>1.094648692423379</v>
+        <v>1.093169634782265</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.057774529049776</v>
+        <v>-3.018957042459161</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.3234199306192396</v>
+        <v>-0.2945975191188334</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1477068251271816</v>
       </c>
       <c r="E87" t="n">
-        <v>1.300468864474718</v>
+        <v>1.294655710504632</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.939630149320632</v>
+        <v>-2.899996893824866</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2816098682281602</v>
+        <v>-0.2575667951507518</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.1417925296962653</v>
       </c>
       <c r="E88" t="n">
-        <v>1.437433871486615</v>
+        <v>1.435752930101498</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.775549288861869</v>
+        <v>-2.735078612276928</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2352357694129751</v>
+        <v>-0.2136232302324077</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1415757998500421</v>
       </c>
       <c r="E89" t="n">
-        <v>1.521579747892131</v>
+        <v>1.519545052514499</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.522567000480986</v>
+        <v>-2.481317455191838</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.2194504123780587</v>
+        <v>-0.2014577524139909</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.1489298216521741</v>
       </c>
       <c r="E90" t="n">
-        <v>1.580093707857309</v>
+        <v>1.578256626778944</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.282413783614822</v>
+        <v>-2.240568955745168</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1786692861686532</v>
+        <v>-0.1641623228722007</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.1640156553910386</v>
       </c>
       <c r="E91" t="n">
-        <v>1.57915199033241</v>
+        <v>1.579855228872701</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.931155586510202</v>
+        <v>-1.889215611014975</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.154013242811113</v>
+        <v>-0.1417867729250214</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.1867129454210287</v>
       </c>
       <c r="E92" t="n">
-        <v>1.565273245333008</v>
+        <v>1.569798246833802</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.597908346989951</v>
+        <v>-1.560686107929371</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1465124383284654</v>
+        <v>-0.1342341251848502</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.2155312517507771</v>
       </c>
       <c r="E93" t="n">
-        <v>1.518493549267786</v>
+        <v>1.527760074109619</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.26225497039993</v>
+        <v>-1.229158234796873</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1162127989489754</v>
+        <v>-0.1037271127752659</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.2468510591496622</v>
       </c>
       <c r="E94" t="n">
-        <v>1.507530225103239</v>
+        <v>1.517715900404932</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9414989063394795</v>
+        <v>-0.914926492215597</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1093353333979643</v>
+        <v>-0.1027530694544992</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.2760730017346691</v>
       </c>
       <c r="E95" t="n">
-        <v>1.479268940625441</v>
+        <v>1.482636922602444</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6872229762032142</v>
+        <v>-0.6670840053776701</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1614012119685622</v>
+        <v>-0.1576874049678433</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.2985855191783933</v>
       </c>
       <c r="E96" t="n">
-        <v>1.40311973421277</v>
+        <v>1.405786307411512</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.424972333218468</v>
+        <v>-0.4102360397475582</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2324167160450456</v>
+        <v>-0.225470329457562</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.3093332667205034</v>
       </c>
       <c r="E97" t="n">
-        <v>1.315445466692267</v>
+        <v>1.316224945317151</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2403548336529216</v>
+        <v>-0.2307778591866236</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.2626492641500933</v>
+        <v>-0.2553033795193397</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.3071452156391257</v>
       </c>
       <c r="E98" t="n">
-        <v>1.230557926743825</v>
+        <v>1.230152939414465</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.0870280945665808</v>
+        <v>-0.08491044997691154</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3011072025017654</v>
+        <v>-0.2941406885319491</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2939146758205123</v>
       </c>
       <c r="E99" t="n">
-        <v>1.153445655582568</v>
+        <v>1.150903506201882</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1147531827633327</v>
+        <v>0.116009009436757</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3447610550986541</v>
+        <v>-0.3351932294425073</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2758135390860836</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9672661491638702</v>
+        <v>0.9705054378780792</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1791547070211602</v>
+        <v>0.1782264077511496</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3158050709700401</v>
+        <v>-0.3077156930343306</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2607123642710652</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8312416398355184</v>
+        <v>0.8388857756772017</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2230506981267179</v>
+        <v>0.2228219778729374</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3683003336970687</v>
+        <v>-0.3595729787334807</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2564359599701162</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7066793697852927</v>
+        <v>0.7145186802435355</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2191417165094396</v>
+        <v>0.2216954543829837</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3359605096538564</v>
+        <v>-0.3304230398296608</v>
       </c>
     </row>
   </sheetData>
